--- a/NHANES/NHANES_data_dictionary.xlsx
+++ b/NHANES/NHANES_data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\OneDrive\Desktop\CHORDS Lab\HRS\CHORDSLab (GitHub Clone)\NHANES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\OneDrive\Desktop\CHORDS Lab\CHORDSLab-GitHub\Allostatic-over-Load-Repo\NHANES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B87B7-B3B4-4F6B-B809-489CF7379F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3786CB6-EDFE-4DAB-A496-14B80A33D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{DE3727EB-73C5-4238-B837-372BE6289D2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{DE3727EB-73C5-4238-B837-372BE6289D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="HRS + NHANES Vars" sheetId="2" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="209">
   <si>
     <t>id_year</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t>Not available 1999-2010</t>
+  </si>
+  <si>
+    <t>Individuals 85 and over are top-coded at 85 years of age.</t>
+  </si>
+  <si>
+    <t>85+ top-coded as 85 (1999–2006); 80+ top-coded as 80 (2007–2023)</t>
   </si>
 </sst>
 </file>
@@ -1611,15 +1617,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1939,20 +1945,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719DE1D2-63C0-402A-8D0F-01584F4B73C9}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
         <v>9</v>
@@ -2013,7 +2019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>68</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>69</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>108</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -2210,7 +2216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>48</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
         <v>68</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>47</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
         <v>9</v>
@@ -2407,7 +2413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
         <v>47</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>69</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>52</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
         <v>9</v>
@@ -2604,7 +2610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="12" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="12" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="12" t="s">
         <v>68</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="12" t="s">
         <v>47</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="12" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="12" t="s">
         <v>69</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>53</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="12" t="s">
         <v>9</v>
@@ -2801,7 +2807,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
         <v>33</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
         <v>7</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
         <v>48</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>47</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>6</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="12" t="s">
         <v>69</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="12" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="12" t="s">
         <v>9</v>
@@ -2998,7 +3004,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>10</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="12" t="s">
         <v>33</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="12" t="s">
         <v>7</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="12" t="s">
         <v>48</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="12" t="s">
         <v>68</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="12" t="s">
         <v>47</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="12" t="s">
         <v>22</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>55</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="12" t="s">
         <v>9</v>
@@ -3178,7 +3184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>33</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" s="12" t="s">
         <v>7</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B72" s="12" t="s">
         <v>48</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73" s="12" t="s">
         <v>68</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B74" s="12" t="s">
         <v>47</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B75" s="12" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="12" t="s">
         <v>22</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
       <c r="B78" s="12" t="s">
         <v>9</v>
@@ -3358,7 +3364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B79" s="12" t="s">
         <v>10</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="12" t="s">
         <v>33</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B81" s="12" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
         <v>48</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>68</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
         <v>47</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B85" s="12" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>57</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="10"/>
       <c r="B88" s="12" t="s">
         <v>9</v>
@@ -3538,7 +3544,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B89" s="12" t="s">
         <v>10</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B90" s="12" t="s">
         <v>33</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B91" s="12" t="s">
         <v>7</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B92" s="12" t="s">
         <v>48</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B93" s="12" t="s">
         <v>68</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B94" s="12" t="s">
         <v>47</v>
       </c>
@@ -3643,10 +3649,10 @@
         <v>171</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B96" s="12" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>58</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="12" t="s">
         <v>9</v>
@@ -3718,7 +3724,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B99" s="12" t="s">
         <v>10</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B100" s="12" t="s">
         <v>33</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B101" s="12" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B102" s="12" t="s">
         <v>48</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B103" s="12" t="s">
         <v>68</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B104" s="12" t="s">
         <v>47</v>
       </c>
@@ -3823,10 +3829,10 @@
         <v>177</v>
       </c>
       <c r="G104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B105" s="12" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B106" s="12" t="s">
         <v>22</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B108" s="12" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" s="12" t="s">
         <v>10</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B110" s="12" t="s">
         <v>33</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" s="12" t="s">
         <v>7</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B112" s="12" t="s">
         <v>48</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B113" s="12" t="s">
         <v>68</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B114" s="12" t="s">
         <v>47</v>
       </c>
@@ -4002,10 +4008,10 @@
         <v>183</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B115" s="12" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="12" t="s">
         <v>22</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
         <v>60</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B118" s="12" t="s">
         <v>9</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B119" s="12" t="s">
         <v>10</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B120" s="12" t="s">
         <v>33</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B121" s="12" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B122" s="12" t="s">
         <v>48</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B123" s="12" t="s">
         <v>68</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B124" s="12" t="s">
         <v>47</v>
       </c>
@@ -4181,10 +4187,10 @@
         <v>188</v>
       </c>
       <c r="G124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B125" s="12" t="s">
         <v>6</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B126" s="12" t="s">
         <v>22</v>
       </c>
@@ -4232,20 +4238,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F912F37A-F8D2-49FF-A461-F7413E8EF51F}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>108</v>
       </c>
@@ -4299,7 +4307,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>51</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>52</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
       <c r="D6" t="s">
         <v>53</v>
@@ -4336,7 +4344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>54</v>
@@ -4351,7 +4359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>55</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>57</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>58</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>60</v>
       </c>
@@ -4417,7 +4425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -4437,7 +4445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -4459,7 +4467,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>53</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>55</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>56</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -4525,7 +4533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>58</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -4547,7 +4555,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
         <v>108</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>51</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>52</v>
       </c>
@@ -4611,7 +4619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>53</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>54</v>
       </c>
@@ -4633,7 +4641,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>55</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>56</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>57</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>58</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>60</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>33</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="s">
         <v>108</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>51</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>52</v>
       </c>
@@ -4764,7 +4772,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>53</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>54</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>55</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>56</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>57</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>58</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>59</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>60</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>7</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D51" s="3" t="s">
         <v>108</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>51</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>52</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>53</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>54</v>
       </c>
@@ -4951,7 +4959,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>55</v>
       </c>
@@ -4962,7 +4970,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>56</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>57</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>58</v>
       </c>
@@ -4995,7 +5003,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>59</v>
       </c>
@@ -5006,7 +5014,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
         <v>60</v>
       </c>
@@ -5017,7 +5025,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D63" s="3" t="s">
         <v>108</v>
       </c>
@@ -5048,7 +5056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>51</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>52</v>
       </c>
@@ -5070,7 +5078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>53</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>55</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>56</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>57</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>58</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>59</v>
       </c>
@@ -5147,7 +5155,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D73" t="s">
         <v>60</v>
       </c>
@@ -5158,7 +5166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>68</v>
       </c>
@@ -5178,7 +5186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D75" s="3" t="s">
         <v>108</v>
       </c>
@@ -5189,7 +5197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>51</v>
       </c>
@@ -5200,7 +5208,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>52</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>53</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -5233,7 +5241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>55</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>56</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>57</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>58</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D84" t="s">
         <v>59</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" t="s">
         <v>60</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>47</v>
       </c>
@@ -5322,7 +5330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="D87" s="3" t="s">
         <v>108</v>
@@ -5337,7 +5345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
         <v>51</v>
       </c>
@@ -5351,7 +5359,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>52</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>53</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
         <v>54</v>
       </c>
@@ -5393,7 +5401,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
         <v>55</v>
       </c>
@@ -5407,7 +5415,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>56</v>
       </c>
@@ -5421,7 +5429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D94" t="s">
         <v>57</v>
       </c>
@@ -5432,10 +5440,10 @@
         <v>171</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -5446,10 +5454,10 @@
         <v>177</v>
       </c>
       <c r="G95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>59</v>
       </c>
@@ -5460,10 +5468,10 @@
         <v>183</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
         <v>60</v>
       </c>
@@ -5474,10 +5482,10 @@
         <v>188</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>6</v>
       </c>
@@ -5497,7 +5505,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="D99" s="3" t="s">
         <v>108</v>
@@ -5509,7 +5517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>51</v>
       </c>
@@ -5520,7 +5528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>52</v>
       </c>
@@ -5531,7 +5539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>53</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>54</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D104" t="s">
         <v>55</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>56</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>57</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>59</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D109" t="s">
         <v>60</v>
       </c>
@@ -5619,7 +5627,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>69</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D111" s="3" t="s">
         <v>108</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>51</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>52</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>53</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>54</v>
       </c>
@@ -5694,7 +5702,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" t="s">
@@ -5710,7 +5718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" t="s">
@@ -5726,7 +5734,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" t="s">
@@ -5742,7 +5750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" t="s">
@@ -5758,7 +5766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" t="s">
@@ -5774,7 +5782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" t="s">
@@ -5805,18 +5813,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BF1B6-3D46-45A6-8044-045DB3DDA0C0}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -5888,8 +5896,11 @@
       <c r="D5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -5920,7 +5931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -5934,7 +5945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -5968,7 +5979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -5985,7 +5996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5999,7 +6010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -6013,7 +6024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -6027,7 +6038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6041,7 +6052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
@@ -6055,7 +6066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -6083,7 +6094,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -6097,7 +6108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -6125,7 +6136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -6139,7 +6150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -6153,7 +6164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>

--- a/NHANES/NHANES_data_dictionary.xlsx
+++ b/NHANES/NHANES_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\OneDrive\Desktop\CHORDS Lab\CHORDSLab-GitHub\Allostatic-over-Load-Repo\NHANES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\CHORDS Lab\NHANES_HRS_Revisions_(Weights)\NHANES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3786CB6-EDFE-4DAB-A496-14B80A33D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77FB625-7790-4BA1-874B-D4ED3DA7CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{DE3727EB-73C5-4238-B837-372BE6289D2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{DE3727EB-73C5-4238-B837-372BE6289D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="HRS + NHANES Vars" sheetId="2" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NHANES_by_vars" sheetId="7" r:id="rId3"/>
     <sheet name="NHANES_final_dataset" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="255">
   <si>
     <t>id_year</t>
   </si>
@@ -628,54 +628,27 @@
     <t>NHANES survey cycle years</t>
   </si>
   <si>
-    <t>Allostatic load score (sum of biomarker risk scores)</t>
-  </si>
-  <si>
     <t>C-Reactive Protein (mg/L)</t>
   </si>
   <si>
-    <t>Cutoff value indicating high-risk CRP level</t>
-  </si>
-  <si>
     <t>CRP risk score (1 = high risk, 0 = normal risk)</t>
   </si>
   <si>
-    <t>Cutoff value indicating high-risk A1C level</t>
-  </si>
-  <si>
     <t>A1C risk score (1 = high risk, 0 = normal risk)</t>
   </si>
   <si>
-    <t>Cutoff value indicating high-risk HDL level</t>
-  </si>
-  <si>
     <t>HDL risk score (1 = high risk, 0 = normal risk)</t>
   </si>
   <si>
-    <t>Cutoff value indicating high-risk Heart Rate level</t>
-  </si>
-  <si>
-    <t>Heart Rate risk score (1 = high risk, 0 = normal risk)</t>
-  </si>
-  <si>
     <t>Waist-to-Height Ratio</t>
   </si>
   <si>
-    <t>Cutoff value indicating high-risk Waist-to-Height Ratio level</t>
-  </si>
-  <si>
-    <t>Waist-to-Height Ratio risk score (1 = high risk, 0 = normal risk)</t>
-  </si>
-  <si>
     <t>1st oscillometric reading</t>
   </si>
   <si>
     <t>BPXOPLS</t>
   </si>
   <si>
-    <t>Number of biomarkers present (0-5)</t>
-  </si>
-  <si>
     <t>Not available 1999-2010</t>
   </si>
   <si>
@@ -683,13 +656,190 @@
   </si>
   <si>
     <t>85+ top-coded as 85 (1999–2006); 80+ top-coded as 80 (2007–2023)</t>
+  </si>
+  <si>
+    <t>WTINT</t>
+  </si>
+  <si>
+    <t>WTMEC</t>
+  </si>
+  <si>
+    <t>WTPH</t>
+  </si>
+  <si>
+    <t>SDMVSTRA</t>
+  </si>
+  <si>
+    <t>SDMVPSU</t>
+  </si>
+  <si>
+    <t>Respondent sequence number (unique participant ID)</t>
+  </si>
+  <si>
+    <t>Primary key within each NHANES cycle</t>
+  </si>
+  <si>
+    <t>Derived from cycle file; formatted as "YYYY–YYYY"</t>
+  </si>
+  <si>
+    <t>Allostatic load score (sum of biomarker risk scores; range 0–5)</t>
+  </si>
+  <si>
+    <t>Set to NA if any required biomarker risk score is missing</t>
+  </si>
+  <si>
+    <t>Age in years at time of screening</t>
+  </si>
+  <si>
+    <t>Reported race and Hispanic origin</t>
+  </si>
+  <si>
+    <t>Standard NHANES race/ethnicity categories</t>
+  </si>
+  <si>
+    <t>Race/ethnicity with Non-Hispanic Asian category</t>
+  </si>
+  <si>
+    <t>Not available 1999–2010</t>
+  </si>
+  <si>
+    <t>Gender of participant</t>
+  </si>
+  <si>
+    <t>Derived from NHANES RIAGENDR</t>
+  </si>
+  <si>
+    <t>Not available 2011–2014</t>
+  </si>
+  <si>
+    <t>Weighted cycle-specific 75th percentile cutoff for CRP</t>
+  </si>
+  <si>
+    <t>Glycated Hemoglobin (%)</t>
+  </si>
+  <si>
+    <t>Weighted cycle-specific 75th percentile cutoff for A1C</t>
+  </si>
+  <si>
+    <t>High-Density Lipoprotein (mg/dL)</t>
+  </si>
+  <si>
+    <t>Weighted cycle-specific 25th percentile cutoff for HDL</t>
+  </si>
+  <si>
+    <t>Lower values indicate higher risk</t>
+  </si>
+  <si>
+    <t>Resting heart rate (beats per minute)</t>
+  </si>
+  <si>
+    <t>Weighted cycle-specific 75th percentile cutoff for heart rate</t>
+  </si>
+  <si>
+    <t>Heart rate risk score (1 = high risk, 0 = normal risk)</t>
+  </si>
+  <si>
+    <t>Waist circumference (cm)</t>
+  </si>
+  <si>
+    <t>Standing height (cm)</t>
+  </si>
+  <si>
+    <t>Computed as waist / height</t>
+  </si>
+  <si>
+    <t>Weighted cycle-specific 75th percentile cutoff for WHtR</t>
+  </si>
+  <si>
+    <t>WHtR risk score (1 = high risk, 0 = normal risk)</t>
+  </si>
+  <si>
+    <t>Number of non-missing biomarker risk scores (0–5)</t>
+  </si>
+  <si>
+    <t>Counts available biomarker components per observation</t>
+  </si>
+  <si>
+    <t>Use with SDMVPSU for complex survey variance estimation</t>
+  </si>
+  <si>
+    <t>Use with SDMVSTRA for complex survey variance estimation</t>
+  </si>
+  <si>
+    <t>Masked variance unit pseudo-stratum variable for variance estimation</t>
+  </si>
+  <si>
+    <t>Masked variance unit pseudo-PSU variable for variance estimation</t>
+  </si>
+  <si>
+    <t>Full sample 2-year interview weight</t>
+  </si>
+  <si>
+    <t>Full sample 2-year MEC exam weight</t>
+  </si>
+  <si>
+    <t>Use for analyses including examination or laboratory variables</t>
+  </si>
+  <si>
+    <t>Phlebotomy 2-year weight</t>
+  </si>
+  <si>
+    <t>Use for analyses limited to interview/demographic data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only available 2021–2023; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use for phlebotomy subsample analyses when available</t>
+    </r>
+  </si>
+  <si>
+    <t>HSCRP_L, GHB_L, HDL_L</t>
+  </si>
+  <si>
+    <t>WTPH2YR</t>
+  </si>
+  <si>
+    <t>WTINT2YR</t>
+  </si>
+  <si>
+    <t>WTMEC2YR</t>
+  </si>
+  <si>
+    <t>Only available 2021–2023</t>
+  </si>
+  <si>
+    <t>Use for phlebotomy subsample analyses when available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported race and Hispanic origin information, </t>
+  </si>
+  <si>
+    <t>with Non-Hispanic Asian Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masked variance unit pseudo-stratum variable </t>
+  </si>
+  <si>
+    <t>for variance estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masked variance unit pseudo-PSU variable </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +990,15 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1028,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1152,6 +1311,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1197,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,10 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1220,21 +1393,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1617,15 +1834,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1668,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +2025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1822,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1850,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +2109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1906,7 +2123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +2134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +2145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1943,2290 +2160,3422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719DE1D2-63C0-402A-8D0F-01584F4B73C9}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+    <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F18" s="24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G25" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E26" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F27" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="12" t="s">
+    <row r="28" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D33" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F33" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+    <row r="34" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D34" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F34" s="24" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F35" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D36" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F36" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="12" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D37" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F37" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G37" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="D38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F38" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C39" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="D39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F39" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="12" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C40" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D40" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E40" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F40" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="12" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C41" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="D41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F41" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G41" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C42" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D42" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F42" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D43" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E43" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F43" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="12" t="s">
+    <row r="44" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D49" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F49" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+    <row r="50" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B50" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C50" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="D50" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F50" s="24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12" t="s">
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="D51" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F51" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C52" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D52" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F52" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C53" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D53" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="C64" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="12" t="s">
+      <c r="C79" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C86" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="D86" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+      <c r="F86" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C87" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="D87" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="12" t="s">
+      <c r="F87" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C88" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D88" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E88" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="12" t="s">
+      <c r="F88" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C89" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D89" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F42" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F89" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="12" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C90" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D90" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E90" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F90" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="12" t="s">
+      <c r="E103" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C111" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D111" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F111" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="13" t="s">
+    <row r="112" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C112" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="D112" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F123" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="12" t="s">
+      <c r="G123" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C128" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D128" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
+      <c r="F128" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C129" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D129" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="12" t="s">
+      <c r="F129" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C130" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D130" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C140" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G142" s="24"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+      <c r="B143" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E153" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="12" t="s">
+      <c r="C154" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="B155" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G157" s="24"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C161" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D161" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="12" t="s">
+      <c r="F161" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C162" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D162" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="12" t="s">
+      <c r="F162" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C163" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D163" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E163" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
+      <c r="F163" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C164" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D164" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="12" t="s">
+      <c r="F164" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C165" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D165" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E165" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F165" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F166" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="18"/>
+      <c r="B167" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F167" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="18"/>
+      <c r="B169" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="18"/>
+      <c r="B170" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E172" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G172" s="24"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D178" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="12" t="s">
+      <c r="E178" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F181" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F182" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="18"/>
+      <c r="B183" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F185" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C186" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D186" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s">
-        <v>159</v>
-      </c>
-      <c r="G74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
-      <c r="B78" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F80" t="s">
-        <v>163</v>
-      </c>
-      <c r="G80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" t="s">
-        <v>165</v>
-      </c>
-      <c r="G84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" t="s">
-        <v>103</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>63</v>
-      </c>
-      <c r="D89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" t="s">
-        <v>169</v>
-      </c>
-      <c r="G90" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>64</v>
-      </c>
-      <c r="D92" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" t="s">
-        <v>171</v>
-      </c>
-      <c r="G94" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
-        <v>115</v>
-      </c>
-      <c r="D96" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="10"/>
-      <c r="B98" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F99" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F100" t="s">
-        <v>175</v>
-      </c>
-      <c r="G100" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F102" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B104" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F104" t="s">
-        <v>177</v>
-      </c>
-      <c r="G104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" t="s">
-        <v>103</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" t="s">
-        <v>103</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F108" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" t="s">
-        <v>103</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F110" t="s">
-        <v>181</v>
-      </c>
-      <c r="G110" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" t="s">
-        <v>103</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F112" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B114" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" t="s">
-        <v>183</v>
-      </c>
-      <c r="G114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>109</v>
-      </c>
-      <c r="D115" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F118" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D119" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B120" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F120" t="s">
-        <v>186</v>
-      </c>
-      <c r="G120" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F121" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B122" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" t="s">
-        <v>64</v>
-      </c>
-      <c r="D122" t="s">
-        <v>103</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F122" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D123" t="s">
-        <v>105</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F123" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" t="s">
-        <v>103</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F124" t="s">
-        <v>188</v>
-      </c>
-      <c r="G124" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" t="s">
-        <v>109</v>
-      </c>
-      <c r="D125" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F125" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" t="s">
-        <v>115</v>
-      </c>
-      <c r="D126" t="s">
-        <v>103</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="F186" s="14" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D126" xr:uid="{9A7D15AC-0601-4F5B-B3BC-6642847C5ED0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D186" xr:uid="{9A7D15AC-0601-4F5B-B3BC-6642847C5ED0}">
       <formula1>"character, double, factor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4236,48 +5585,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F912F37A-F8D2-49FF-A461-F7413E8EF51F}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -4296,7 +5647,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>108</v>
       </c>
@@ -4307,7 +5659,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="D4" t="s">
         <v>51</v>
       </c>
@@ -4318,7 +5671,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="D5" t="s">
         <v>52</v>
       </c>
@@ -4329,123 +5683,136 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="D8" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="D10" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="31" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="28" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
@@ -4456,7 +5823,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -4467,7 +5835,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -4478,7 +5847,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="D18" t="s">
         <v>53</v>
       </c>
@@ -4489,7 +5859,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="D19" t="s">
         <v>54</v>
       </c>
@@ -4500,7 +5871,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="D20" t="s">
         <v>55</v>
       </c>
@@ -4511,7 +5883,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="D21" t="s">
         <v>56</v>
       </c>
@@ -4522,7 +5895,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -4533,7 +5907,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="D23" t="s">
         <v>58</v>
       </c>
@@ -4544,7 +5919,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -4555,38 +5931,43 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" t="s">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="30" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="D27" s="3" t="s">
         <v>108</v>
       </c>
@@ -4597,7 +5978,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="D28" t="s">
         <v>51</v>
       </c>
@@ -4608,7 +5990,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="D29" t="s">
         <v>52</v>
       </c>
@@ -4619,7 +6002,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="D30" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +6014,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="D31" t="s">
         <v>54</v>
       </c>
@@ -4641,7 +6026,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="D32" t="s">
         <v>55</v>
       </c>
@@ -4652,7 +6038,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="D33" t="s">
         <v>56</v>
       </c>
@@ -4663,7 +6050,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="D34" t="s">
         <v>57</v>
       </c>
@@ -4674,7 +6062,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
       <c r="D35" t="s">
         <v>58</v>
       </c>
@@ -4685,7 +6074,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -4696,41 +6086,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
       <c r="D39" s="3" t="s">
         <v>108</v>
       </c>
@@ -4744,7 +6139,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
       <c r="D40" t="s">
         <v>51</v>
       </c>
@@ -4758,7 +6154,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
       <c r="D41" t="s">
         <v>52</v>
       </c>
@@ -4769,10 +6166,11 @@
         <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
       <c r="D42" t="s">
         <v>53</v>
       </c>
@@ -4783,10 +6181,11 @@
         <v>146</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
       <c r="D43" t="s">
         <v>54</v>
       </c>
@@ -4797,10 +6196,11 @@
         <v>151</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="D44" t="s">
         <v>55</v>
       </c>
@@ -4811,10 +6211,11 @@
         <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="D45" t="s">
         <v>56</v>
       </c>
@@ -4825,10 +6226,11 @@
         <v>163</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
       <c r="D46" t="s">
         <v>57</v>
       </c>
@@ -4839,10 +6241,11 @@
         <v>169</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
       <c r="D47" t="s">
         <v>58</v>
       </c>
@@ -4853,10 +6256,11 @@
         <v>175</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
       <c r="D48" t="s">
         <v>59</v>
       </c>
@@ -4867,44 +6271,49 @@
         <v>181</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="G49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="G49" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
       <c r="D51" s="3" t="s">
         <v>108</v>
       </c>
@@ -4915,7 +6324,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
       <c r="D52" t="s">
         <v>51</v>
       </c>
@@ -4926,7 +6336,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
       <c r="D53" t="s">
         <v>52</v>
       </c>
@@ -4937,7 +6348,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
       <c r="D54" t="s">
         <v>53</v>
       </c>
@@ -4948,7 +6360,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
       <c r="D55" t="s">
         <v>54</v>
       </c>
@@ -4959,7 +6372,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
       <c r="D56" t="s">
         <v>55</v>
       </c>
@@ -4970,7 +6384,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="D57" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +6396,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
       <c r="D58" t="s">
         <v>57</v>
       </c>
@@ -4992,7 +6408,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
       <c r="D59" t="s">
         <v>58</v>
       </c>
@@ -5003,7 +6420,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="D60" t="s">
         <v>59</v>
       </c>
@@ -5014,38 +6432,44 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D61" t="s">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="G61" s="30"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="C62" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G62" s="28"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
       <c r="D63" s="3" t="s">
         <v>108</v>
       </c>
@@ -5056,7 +6480,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
       <c r="D64" t="s">
         <v>51</v>
       </c>
@@ -5067,7 +6492,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
       <c r="D65" t="s">
         <v>52</v>
       </c>
@@ -5078,7 +6504,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
       <c r="D66" t="s">
         <v>53</v>
       </c>
@@ -5089,7 +6516,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -5100,7 +6528,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
       <c r="D68" t="s">
         <v>55</v>
       </c>
@@ -5111,7 +6540,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
       <c r="D69" t="s">
         <v>56</v>
       </c>
@@ -5122,7 +6552,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
       <c r="D70" t="s">
         <v>57</v>
       </c>
@@ -5133,7 +6564,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
       <c r="D71" t="s">
         <v>58</v>
       </c>
@@ -5144,7 +6576,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
       <c r="D72" t="s">
         <v>59</v>
       </c>
@@ -5155,38 +6588,43 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
+      <c r="G73" s="30"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
       <c r="D75" s="3" t="s">
         <v>108</v>
       </c>
@@ -5197,7 +6635,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
       <c r="D76" t="s">
         <v>51</v>
       </c>
@@ -5208,7 +6647,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
       <c r="D77" t="s">
         <v>52</v>
       </c>
@@ -5219,7 +6659,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
       <c r="D78" t="s">
         <v>53</v>
       </c>
@@ -5230,7 +6671,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -5241,7 +6683,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
       <c r="D80" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +6695,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
       <c r="D81" t="s">
         <v>56</v>
       </c>
@@ -5263,7 +6707,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
       <c r="D82" t="s">
         <v>57</v>
       </c>
@@ -5274,7 +6719,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
       <c r="D83" t="s">
         <v>58</v>
       </c>
@@ -5285,7 +6731,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="D84" t="s">
         <v>59</v>
       </c>
@@ -5296,42 +6743,45 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D85" t="s">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="30" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D87" s="3" t="s">
         <v>108</v>
       </c>
@@ -5345,7 +6795,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="D88" t="s">
         <v>51</v>
       </c>
@@ -5359,7 +6810,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
       <c r="D89" t="s">
         <v>52</v>
       </c>
@@ -5373,7 +6825,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
       <c r="D90" t="s">
         <v>53</v>
       </c>
@@ -5387,7 +6840,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
       <c r="D91" t="s">
         <v>54</v>
       </c>
@@ -5401,7 +6855,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="D92" t="s">
         <v>55</v>
       </c>
@@ -5415,7 +6870,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
       <c r="D93" t="s">
         <v>56</v>
       </c>
@@ -5429,7 +6885,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
       <c r="D94" t="s">
         <v>57</v>
       </c>
@@ -5440,10 +6897,11 @@
         <v>171</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -5454,10 +6912,11 @@
         <v>177</v>
       </c>
       <c r="G95" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
       <c r="D96" t="s">
         <v>59</v>
       </c>
@@ -5468,45 +6927,48 @@
         <v>183</v>
       </c>
       <c r="G96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="G97" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99"/>
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D99" s="3" t="s">
         <v>108</v>
       </c>
@@ -5517,7 +6979,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="D100" t="s">
         <v>51</v>
       </c>
@@ -5528,7 +6991,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
       <c r="D101" t="s">
         <v>52</v>
       </c>
@@ -5539,7 +7003,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
       <c r="D102" t="s">
         <v>53</v>
       </c>
@@ -5550,7 +7015,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
       <c r="D103" t="s">
         <v>54</v>
       </c>
@@ -5561,7 +7027,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
       <c r="D104" t="s">
         <v>55</v>
       </c>
@@ -5572,7 +7039,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
       <c r="D105" t="s">
         <v>56</v>
       </c>
@@ -5583,7 +7051,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
       <c r="D106" t="s">
         <v>57</v>
       </c>
@@ -5594,7 +7063,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -5605,7 +7075,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
       <c r="D108" t="s">
         <v>59</v>
       </c>
@@ -5616,38 +7087,47 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D109" t="s">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="30" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+      <c r="G109" s="30"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G110" s="28"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
       <c r="D111" s="3" t="s">
         <v>108</v>
       </c>
@@ -5658,7 +7138,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
       <c r="D112" t="s">
         <v>51</v>
       </c>
@@ -5669,7 +7150,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
       <c r="D113" t="s">
         <v>52</v>
       </c>
@@ -5680,7 +7162,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
       <c r="D114" t="s">
         <v>53</v>
       </c>
@@ -5691,7 +7174,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
       <c r="D115" t="s">
         <v>54</v>
       </c>
@@ -5702,100 +7186,892 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
       <c r="D116" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G116" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="G116" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
       <c r="D117" t="s">
         <v>56</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G117" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
+      <c r="G117" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
       <c r="D118" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G118" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+      <c r="G118" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
       <c r="D119" t="s">
         <v>58</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G119" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+      <c r="G119" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
       <c r="D120" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G120" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="G120" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
       <c r="D121" t="s">
         <v>60</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G121" s="14" t="s">
-        <v>206</v>
+      <c r="G121" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" t="s">
+        <v>246</v>
+      </c>
+      <c r="F123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="D125" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="D126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="D129" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="D130" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="D132" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="D133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E133" t="s">
+        <v>246</v>
+      </c>
+      <c r="F133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="D135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="s">
+        <v>247</v>
+      </c>
+      <c r="F135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" t="s">
+        <v>247</v>
+      </c>
+      <c r="F136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" t="s">
+        <v>247</v>
+      </c>
+      <c r="F137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="D138" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" t="s">
+        <v>247</v>
+      </c>
+      <c r="F138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="D139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" t="s">
+        <v>247</v>
+      </c>
+      <c r="F139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>247</v>
+      </c>
+      <c r="F140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="D141" t="s">
+        <v>56</v>
+      </c>
+      <c r="E141" t="s">
+        <v>247</v>
+      </c>
+      <c r="F141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="D142" t="s">
+        <v>57</v>
+      </c>
+      <c r="E142" t="s">
+        <v>247</v>
+      </c>
+      <c r="F142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="D143" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" t="s">
+        <v>247</v>
+      </c>
+      <c r="F143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="D144" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" t="s">
+        <v>247</v>
+      </c>
+      <c r="F144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+      <c r="D145" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" t="s">
+        <v>247</v>
+      </c>
+      <c r="F145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="D147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="D148" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="D150" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="D151" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="D152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="D153" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="D154" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="D155" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="D156" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4"/>
+      <c r="D157" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D159" t="s">
+        <v>108</v>
+      </c>
+      <c r="E159" t="s">
+        <v>203</v>
+      </c>
+      <c r="F159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="D160" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" t="s">
+        <v>203</v>
+      </c>
+      <c r="F162" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="D163" t="s">
+        <v>54</v>
+      </c>
+      <c r="E163" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="D164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" t="s">
+        <v>203</v>
+      </c>
+      <c r="F164" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="D165" t="s">
+        <v>56</v>
+      </c>
+      <c r="E165" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" t="s">
+        <v>203</v>
+      </c>
+      <c r="F166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="D167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E167" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="D168" t="s">
+        <v>59</v>
+      </c>
+      <c r="E168" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4"/>
+      <c r="D169" t="s">
+        <v>60</v>
+      </c>
+      <c r="E169" t="s">
+        <v>203</v>
+      </c>
+      <c r="F169" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" t="s">
+        <v>108</v>
+      </c>
+      <c r="E171" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="D172" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="D174" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" t="s">
+        <v>204</v>
+      </c>
+      <c r="F174" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="D175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" t="s">
+        <v>204</v>
+      </c>
+      <c r="F175" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="D176" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" t="s">
+        <v>204</v>
+      </c>
+      <c r="F176" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="D177" t="s">
+        <v>56</v>
+      </c>
+      <c r="E177" t="s">
+        <v>204</v>
+      </c>
+      <c r="F177" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="D178" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" t="s">
+        <v>204</v>
+      </c>
+      <c r="F178" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="D179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" t="s">
+        <v>204</v>
+      </c>
+      <c r="F179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="D180" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" t="s">
+        <v>204</v>
+      </c>
+      <c r="F180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="D181" t="s">
+        <v>60</v>
+      </c>
+      <c r="E181" t="s">
+        <v>204</v>
+      </c>
+      <c r="F181" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5811,399 +8087,513 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BF1B6-3D46-45A6-8044-045DB3DDA0C0}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E10" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E23" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E28" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E29" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E30" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
+      <c r="E31" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
